--- a/docs/issues.xlsx
+++ b/docs/issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\dashingdigit.github.io\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2712B9C4-CA88-4FC7-A5EE-A673167F3DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F763065-EC29-4E2D-91EC-2EF18151799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>問題描述</t>
   </si>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>design中的 圖片 scroll trigger 淡入淡出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>scrollTrigger 內播放動畫 或是動畫中插入scrollTrigger</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>design中的 圖片 scroll trigger 淡入</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
@@ -613,7 +613,7 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="4"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5" t="s">
@@ -723,7 +723,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="8"/>
@@ -792,7 +792,9 @@
         <v>44189</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -847,7 +849,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -856,7 +858,9 @@
         <v>44189</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -935,7 +939,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -28586,7 +28590,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
